--- a/latest/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -289,7 +289,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0-RC1</t>
   </si>
   <si>
     <t>Date:</t>

--- a/latest/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="113">
   <si>
     <t>Row</t>
   </si>
@@ -130,7 +130,7 @@
     <t>9.1500</t>
   </si>
   <si>
-    <t>1.3500</t>
+    <t>1.4000</t>
   </si>
   <si>
     <t>0.0000</t>
@@ -184,9 +184,6 @@
     <t>180.0000</t>
   </si>
   <si>
-    <t>1.4000</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -199,10 +196,10 @@
     <t>Connector_Generic</t>
   </si>
   <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>edge</t>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>middle</t>
   </si>
   <si>
     <t>PinSocket_2x02_P2.00mm_Vertical_SMD</t>
@@ -217,10 +214,10 @@
     <t>pedalboard-led-ring(1)</t>
   </si>
   <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>-9.5000</t>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>90.0000</t>
   </si>
   <si>
     <t>bottom</t>
@@ -238,121 +235,109 @@
     <t>R</t>
   </si>
   <si>
-    <t>R2</t>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>R_0201_0603Metric_Pad0.64x0.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>https://api.pim.na.industrial.panasonic.com/file_stream/main/fileversion/1242</t>
+  </si>
+  <si>
+    <t>8.9100</t>
+  </si>
+  <si>
+    <t>-1.6500</t>
+  </si>
+  <si>
+    <t>KiBot Bill of Materials</t>
+  </si>
+  <si>
+    <t>Schematic:</t>
+  </si>
+  <si>
+    <t>Variant:</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Revision:</t>
+  </si>
+  <si>
+    <t>1.1.0-RC1</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>KiCad Version:</t>
+  </si>
+  <si>
+    <t>7.0.7-7.0.7~ubuntu23.04.1</t>
+  </si>
+  <si>
+    <t>Component Groups:</t>
+  </si>
+  <si>
+    <t>Component Count:</t>
+  </si>
+  <si>
+    <t>27 (27 SMD/ 0 THT)</t>
+  </si>
+  <si>
+    <t>Fitted Components:</t>
+  </si>
+  <si>
+    <t>26 (26 SMD/ 0 THT)</t>
+  </si>
+  <si>
+    <t>Number of PCBs:</t>
+  </si>
+  <si>
+    <t>Total Components:</t>
+  </si>
+  <si>
+    <t>75V 0.15A Fast Switching Diode, SOD-123</t>
+  </si>
+  <si>
+    <t>1N4148W</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D_SOD-923</t>
+  </si>
+  <si>
+    <t>Diode_SMD</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>R_0201_0603Metric_Pad0.64x0.40mm_HandSolder</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDA0000/AOA0000C301.pdf</t>
-  </si>
-  <si>
-    <t>2.0500</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>https://api.pim.na.industrial.panasonic.com/file_stream/main/fileversion/1242</t>
-  </si>
-  <si>
-    <t>8.9100</t>
-  </si>
-  <si>
-    <t>-1.6800</t>
-  </si>
-  <si>
-    <t>KiBot Bill of Materials</t>
-  </si>
-  <si>
-    <t>Schematic:</t>
-  </si>
-  <si>
-    <t>Variant:</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Revision:</t>
-  </si>
-  <si>
-    <t>1.1.0-RC1</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>2023-05-29</t>
-  </si>
-  <si>
-    <t>KiCad Version:</t>
-  </si>
-  <si>
-    <t>7.0.7-7.0.7~ubuntu23.04.1</t>
-  </si>
-  <si>
-    <t>Component Groups:</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
-  <si>
-    <t>29 (29 SMD/ 0 THT)</t>
-  </si>
-  <si>
-    <t>Fitted Components:</t>
-  </si>
-  <si>
-    <t>27 (27 SMD/ 0 THT)</t>
-  </si>
-  <si>
-    <t>Number of PCBs:</t>
-  </si>
-  <si>
-    <t>Total Components:</t>
-  </si>
-  <si>
-    <t>75V 0.15A Fast Switching Diode, SOD-123</t>
-  </si>
-  <si>
-    <t>1N4148W</t>
-  </si>
-  <si>
-    <t>Diode</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>D_SOD-923</t>
-  </si>
-  <si>
-    <t>Diode_SMD</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (DNF)</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>8.7725</t>
-  </si>
-  <si>
-    <t>2.8500</t>
+    <t>8.8500</t>
+  </si>
+  <si>
+    <t>2.8000</t>
   </si>
   <si>
     <t>no</t>
@@ -362,18 +347,6 @@
   </si>
   <si>
     <t>0.2500</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>middle</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>90.0000</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -925,7 +898,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -960,7 +933,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -984,55 +957,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F2" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1040,16 +1013,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F6" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1250,36 +1223,36 @@
         <v>40</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="45" customHeight="1">
       <c r="A11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>22</v>
@@ -1291,25 +1264,25 @@
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="R11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>39</v>
@@ -1321,33 +1294,33 @@
         <v>52</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1">
       <c r="A12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>22</v>
@@ -1359,16 +1332,16 @@
         <v>31</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>77</v>
@@ -1389,74 +1362,6 @@
         <v>41</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="30" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V13" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1472,7 +1377,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1482,17 +1387,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="44.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
     <col min="14" max="14" width="27.7109375" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
@@ -1507,7 +1412,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1531,55 +1436,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F2" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1587,16 +1492,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F6" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1672,52 +1577,52 @@
         <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>38</v>
@@ -1726,81 +1631,13 @@
         <v>39</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="45" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1826,22 +1663,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="116">
   <si>
     <t>Row</t>
   </si>
@@ -106,7 +106,7 @@
     <t>1uF</t>
   </si>
   <si>
-    <t>C_0201_0603Metric_Pad0.64x0.40mm_HandSolder</t>
+    <t>C_0402_1005Metric</t>
   </si>
   <si>
     <t>Capacitor_SMD</t>
@@ -130,60 +130,63 @@
     <t>9.1500</t>
   </si>
   <si>
+    <t>1.4700</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>1.5200</t>
+  </si>
+  <si>
+    <t>0.6200</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>RGB LED with integrated controller</t>
+  </si>
+  <si>
+    <t>SK6812</t>
+  </si>
+  <si>
+    <t>pedalboard-led-ring</t>
+  </si>
+  <si>
+    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12</t>
+  </si>
+  <si>
+    <t>SK6812_EC15</t>
+  </si>
+  <si>
+    <t>LED_SK6812_EC15_1.5x1.5mm</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>http://www.normandled.com/upload/202112/SK9810-EC15%20LED%20Datasheet.pdf</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>1.4000</t>
   </si>
   <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>1.4500</t>
-  </si>
-  <si>
-    <t>0.4000</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>RGB LED with integrated controller</t>
-  </si>
-  <si>
-    <t>SK6812</t>
-  </si>
-  <si>
-    <t>pedalboard-led-ring</t>
-  </si>
-  <si>
-    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12</t>
-  </si>
-  <si>
-    <t>SK6812_EC15</t>
-  </si>
-  <si>
-    <t>LED_SK6812_EC15_1.5x1.5mm</t>
-  </si>
-  <si>
-    <t>Library</t>
-  </si>
-  <si>
-    <t>http://www.normandled.com/upload/202112/SK9810-EC15%20LED%20Datasheet.pdf</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -199,7 +202,7 @@
     <t>J1</t>
   </si>
   <si>
-    <t>middle</t>
+    <t>02x02</t>
   </si>
   <si>
     <t>PinSocket_2x02_P2.00mm_Vertical_SMD</t>
@@ -241,7 +244,7 @@
     <t>330</t>
   </si>
   <si>
-    <t>R_0201_0603Metric_Pad0.64x0.40mm_HandSolder</t>
+    <t>R_0402_1005Metric</t>
   </si>
   <si>
     <t>Resistor_SMD</t>
@@ -256,6 +259,12 @@
     <t>-1.6500</t>
   </si>
   <si>
+    <t>1.5600</t>
+  </si>
+  <si>
+    <t>0.6400</t>
+  </si>
+  <si>
     <t>KiBot Bill of Materials</t>
   </si>
   <si>
@@ -337,7 +346,7 @@
     <t>8.8500</t>
   </si>
   <si>
-    <t>2.8000</t>
+    <t>2.8500</t>
   </si>
   <si>
     <t>no</t>
@@ -913,7 +922,7 @@
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="43.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
@@ -933,7 +942,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -957,13 +966,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F2" s="3">
         <v>5</v>
@@ -971,41 +980,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1013,13 +1022,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F6" s="3">
         <v>26</v>
@@ -1223,36 +1232,36 @@
         <v>40</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="45" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>22</v>
@@ -1264,25 +1273,25 @@
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>39</v>
@@ -1294,33 +1303,33 @@
         <v>52</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>22</v>
@@ -1332,19 +1341,19 @@
         <v>31</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>53</v>
@@ -1359,10 +1368,10 @@
         <v>40</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1412,7 +1421,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1436,13 +1445,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F2" s="3">
         <v>5</v>
@@ -1450,41 +1459,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1492,13 +1501,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F6" s="3">
         <v>26</v>
@@ -1577,52 +1586,52 @@
         <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>38</v>
@@ -1631,13 +1640,13 @@
         <v>39</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1663,22 +1672,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -175,7 +175,7 @@
     <t>Library</t>
   </si>
   <si>
-    <t>http://www.normandled.com/upload/202112/SK9810-EC15%20LED%20Datasheet.pdf</t>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/2384/CL05A105KP5NNN_Specsheet%20(1).pdf</t>
   </si>
   <si>
     <t>9.0000</t>
@@ -211,7 +211,7 @@
     <t>Connector_PinSocket_2.00mm</t>
   </si>
   <si>
-    <t>https://gct.co/files/drawings/bf100.pdf</t>
+    <t>https://www.we-online.com/components/products/datasheet/621004242921.pdf</t>
   </si>
   <si>
     <t>pedalboard-led-ring(1)</t>
@@ -250,7 +250,7 @@
     <t>Resistor_SMD</t>
   </si>
   <si>
-    <t>https://api.pim.na.industrial.panasonic.com/file_stream/main/fileversion/1242</t>
+    <t>https://www.passivecomponent.com/wp-content/uploads/chipR/ASC_WR.pdf</t>
   </si>
   <si>
     <t>8.9100</t>
@@ -340,7 +340,7 @@
     <t xml:space="preserve"> (DNF)</t>
   </si>
   <si>
-    <t/>
+    <t>https://www.onsemi.com/pdf/datasheet/nsr05t40p2-d.pdf</t>
   </si>
   <si>
     <t>8.8500</t>
@@ -1406,7 +1406,7 @@
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="58.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
     <col min="14" max="14" width="27.7109375" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
@@ -1615,7 +1615,7 @@
       <c r="K9" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="7" t="s">
         <v>106</v>
       </c>
       <c r="M9" s="7" t="s">

--- a/latest/BoM/Positional/pedalboard-led-ring-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-led-ring-bom.xlsx
@@ -292,7 +292,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.8-7.0.8~ubuntu23.04.1</t>
+    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
   </si>
   <si>
     <t>Component Groups:</t>
